--- a/WEB_AUTOMATION/dataSheet/memberCollectionData.xlsx
+++ b/WEB_AUTOMATION/dataSheet/memberCollectionData.xlsx
@@ -49,7 +49,7 @@
     <t>[0101] SB1 MPP</t>
   </si>
   <si>
-    <t>1-MAY-2021</t>
+    <t>26-JAN-2024</t>
   </si>
   <si>
     <t>Morning</t>
@@ -70,10 +70,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="[$-409]d/mmm/yyyy;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -89,6 +89,81 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -100,59 +175,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -178,7 +200,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,6 +208,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -193,37 +223,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,55 +251,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,25 +389,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,30 +407,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -384,54 +432,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,6 +442,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -494,21 +520,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -531,171 +542,163 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1022,48 +1025,48 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="16.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="11.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="14" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="8" max="9" width="11.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
@@ -1072,7 +1075,7 @@
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
@@ -1101,7 +1104,7 @@
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
